--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="163">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,445 +52,454 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>ripped</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>un</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>lasted</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>bad</t>
+    <t>description</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>minutes</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>product</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>picture</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>hold</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>never</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>way</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>got</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>really</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>grandson</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>elf</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>enjoys</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -851,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -859,10 +868,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -920,13 +929,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -938,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -991,7 +1000,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K4">
         <v>0.8923076923076924</v>
@@ -1020,13 +1029,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8169014084507042</v>
+        <v>0.8450704225352113</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1038,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K5">
         <v>0.8518518518518519</v>
@@ -1070,13 +1079,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1088,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K6">
         <v>0.8172043010752689</v>
@@ -1120,13 +1129,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7619047619047619</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1138,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K7">
         <v>0.8</v>
@@ -1170,13 +1179,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7365591397849462</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1188,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K8">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1212,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1220,13 +1229,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7094594594594594</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C9">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1238,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.703125</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1262,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1270,13 +1279,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7090909090909091</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1288,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K10">
         <v>0.6792452830188679</v>
@@ -1320,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6844660194174758</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C11">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1338,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K11">
         <v>0.6231884057971014</v>
@@ -1370,13 +1379,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1388,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K12">
-        <v>0.610632183908046</v>
+        <v>0.6068866571018652</v>
       </c>
       <c r="L12">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M12">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1409,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1420,13 +1429,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6571428571428571</v>
+        <v>0.6265060240963856</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1438,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K13">
-        <v>0.578838174273859</v>
+        <v>0.5767634854771784</v>
       </c>
       <c r="L13">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M13">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1462,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1470,13 +1479,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6218487394957983</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="C14">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1488,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K14">
-        <v>0.5450819672131147</v>
+        <v>0.5221311475409836</v>
       </c>
       <c r="L14">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="M14">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1512,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>555</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1520,13 +1529,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6206896551724138</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1538,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K15">
-        <v>0.5319148936170213</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1562,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1570,13 +1579,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5952380952380952</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1588,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K16">
-        <v>0.5283018867924528</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1612,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1620,13 +1629,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5855072463768116</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C17">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1638,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>143</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K17">
-        <v>0.463855421686747</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L17">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M17">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1662,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1670,37 +1679,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5740740740740741</v>
+        <v>0.5784883720930233</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K18">
-        <v>0.4617737003058104</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="L18">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="M18">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1712,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>176</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1720,13 +1729,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1738,31 +1747,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K19">
-        <v>0.4497354497354497</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="L19">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="M19">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1770,13 +1779,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5526315789473685</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1788,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K20">
-        <v>0.4083333333333333</v>
+        <v>0.4281345565749236</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1812,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>71</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1820,13 +1829,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5263157894736842</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1841,10 +1850,10 @@
         <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K21">
-        <v>0.375</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L21">
         <v>24</v>
@@ -1862,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1870,13 +1879,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5180722891566265</v>
+        <v>0.4765625</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1888,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22">
-        <v>0.375</v>
+        <v>0.3203125</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1912,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1920,13 +1929,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4888888888888889</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1938,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K23">
-        <v>0.3253968253968254</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1962,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>85</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1970,13 +1979,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4765625</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D24">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1988,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K24">
         <v>0.2937062937062937</v>
@@ -2020,13 +2029,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4645669291338583</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C25">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2038,31 +2047,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K25">
-        <v>0.2730923694779117</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="L25">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>181</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2070,13 +2079,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4571428571428571</v>
+        <v>0.4597156398104265</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2088,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K26">
-        <v>0.2727272727272727</v>
+        <v>0.28125</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2112,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2120,13 +2129,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4549763033175355</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="C27">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2138,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K27">
-        <v>0.2688172043010753</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2162,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>136</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2170,13 +2179,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4444444444444444</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2188,31 +2197,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K28">
-        <v>0.2622950819672131</v>
+        <v>0.2661290322580645</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2220,13 +2229,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4444444444444444</v>
+        <v>0.421875</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2238,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K29">
-        <v>0.2542372881355932</v>
+        <v>0.2473118279569892</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2262,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2270,13 +2279,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4418604651162791</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2288,31 +2297,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K30">
-        <v>0.2317180616740088</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L30">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>872</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2320,13 +2329,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4310344827586207</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2338,31 +2347,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K31">
-        <v>0.2258064516129032</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>96</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2370,13 +2379,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2388,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K32">
-        <v>0.2183908045977012</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2412,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2420,49 +2429,49 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4259259259259259</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K33">
-        <v>0.2105263157894737</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="L33">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>60</v>
+        <v>880</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2470,13 +2479,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2488,31 +2497,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K34">
-        <v>0.188034188034188</v>
+        <v>0.224</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2520,13 +2529,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3932584269662922</v>
+        <v>0.3910891089108911</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2538,31 +2547,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K35">
-        <v>0.1815642458100559</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="L35">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>293</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2570,13 +2579,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3894736842105263</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2588,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K36">
-        <v>0.1635179153094463</v>
+        <v>0.1727019498607242</v>
       </c>
       <c r="L36">
-        <v>251</v>
+        <v>62</v>
       </c>
       <c r="M36">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2620,13 +2629,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3880597014925373</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2638,31 +2647,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K37">
-        <v>0.1558441558441558</v>
+        <v>0.1635179153094463</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>130</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2670,13 +2679,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.360655737704918</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2688,31 +2697,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K38">
-        <v>0.1528662420382166</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N38">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2720,13 +2729,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3564356435643564</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="C39">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2738,31 +2747,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K39">
-        <v>0.1501340482573726</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L39">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N39">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="O39">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>317</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2770,37 +2779,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3264248704663212</v>
+        <v>0.3125</v>
       </c>
       <c r="C40">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K40">
-        <v>0.1282051282051282</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2812,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2820,13 +2829,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3214285714285715</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2838,31 +2847,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K41">
-        <v>0.12109375</v>
+        <v>0.1283422459893048</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>225</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2870,13 +2879,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3148148148148148</v>
+        <v>0.3</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2888,31 +2897,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K42">
-        <v>0.1176470588235294</v>
+        <v>0.119205298013245</v>
       </c>
       <c r="L42">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>285</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2920,13 +2929,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.296875</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2938,31 +2947,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K43">
-        <v>0.09793814432989691</v>
+        <v>0.1185770750988142</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N43">
-        <v>0.63</v>
+        <v>0.88</v>
       </c>
       <c r="O43">
-        <v>0.37</v>
+        <v>0.12</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>175</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2970,49 +2979,49 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2903225806451613</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K44">
-        <v>0.08994708994708994</v>
+        <v>0.1038062283737024</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N44">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0.15</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>172</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3020,49 +3029,49 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2898550724637681</v>
+        <v>0.2797927461139896</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K45">
-        <v>0.08724832214765101</v>
+        <v>0.09139784946236559</v>
       </c>
       <c r="L45">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M45">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N45">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="O45">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3070,49 +3079,49 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.282051282051282</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D46">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K46">
-        <v>0.08041958041958042</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L46">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N46">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="O46">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>263</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3120,13 +3129,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2784810126582278</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C47">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3138,31 +3147,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K47">
-        <v>0.07942238267148015</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="L47">
         <v>22</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N47">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="O47">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>255</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3170,13 +3179,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2702702702702703</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3188,31 +3197,31 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K48">
-        <v>0.06807511737089202</v>
+        <v>0.07173601147776183</v>
       </c>
       <c r="L48">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="M48">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="N48">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="O48">
-        <v>0.1899999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>397</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3220,49 +3229,49 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2661870503597122</v>
+        <v>0.2577319587628866</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="K49">
-        <v>0.06561679790026247</v>
+        <v>0.06571428571428571</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N49">
-        <v>0.62</v>
+        <v>0.96</v>
       </c>
       <c r="O49">
-        <v>0.38</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>356</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3270,13 +3279,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.264957264957265</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3288,31 +3297,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K50">
-        <v>0.05666666666666666</v>
+        <v>0.06430868167202572</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N50">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="O50">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3320,13 +3329,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2637362637362637</v>
+        <v>0.25</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3338,31 +3347,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K51">
-        <v>0.05128205128205128</v>
+        <v>0.0625</v>
       </c>
       <c r="L51">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M51">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N51">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O51">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>296</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3370,13 +3379,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2608695652173913</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C52">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D52">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3388,31 +3397,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K52">
-        <v>0.0505050505050505</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N52">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="O52">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>470</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3420,13 +3429,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2563291139240506</v>
+        <v>0.2436708860759494</v>
       </c>
       <c r="C53">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D53">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3438,31 +3447,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K53">
-        <v>0.0466786355475763</v>
+        <v>0.06159420289855073</v>
       </c>
       <c r="L53">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M53">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N53">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="O53">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>531</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3470,49 +3479,49 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.255</v>
+        <v>0.2434782608695652</v>
       </c>
       <c r="C54">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="D54">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K54">
-        <v>0.04610951008645533</v>
+        <v>0.05386416861826698</v>
       </c>
       <c r="L54">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N54">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="O54">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>331</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3520,49 +3529,49 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2533333333333334</v>
+        <v>0.2347417840375587</v>
       </c>
       <c r="C55">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K55">
-        <v>0.04310344827586207</v>
+        <v>0.05252525252525252</v>
       </c>
       <c r="L55">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N55">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="O55">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>666</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3570,37 +3579,37 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2523364485981308</v>
+        <v>0.2317979197622586</v>
       </c>
       <c r="C56">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="D56">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>160</v>
+        <v>517</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K56">
-        <v>0.0335195530726257</v>
+        <v>0.03042876901798064</v>
       </c>
       <c r="L56">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="N56">
         <v>0.24</v>
@@ -3612,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>692</v>
+        <v>701</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3620,49 +3629,49 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2473919523099851</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C57">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="D57">
-        <v>169</v>
+        <v>21</v>
       </c>
       <c r="E57">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>505</v>
+        <v>70</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K57">
-        <v>0.02544910179640719</v>
+        <v>0.02235469448584203</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N57">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="O57">
-        <v>0.5900000000000001</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3670,13 +3679,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2448979591836735</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3688,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3696,13 +3705,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2427536231884058</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C59">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3714,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>209</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3722,13 +3731,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2407407407407407</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D60">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3740,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3748,13 +3757,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2303664921465969</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C61">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3766,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>147</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3774,25 +3783,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2268041237113402</v>
+        <v>0.2</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3800,13 +3809,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2228571428571429</v>
+        <v>0.2</v>
       </c>
       <c r="C63">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D63">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3818,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3826,13 +3835,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2164948453608248</v>
+        <v>0.2</v>
       </c>
       <c r="C64">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D64">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3844,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3852,25 +3861,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2162162162162162</v>
+        <v>0.1995565410199557</v>
       </c>
       <c r="C65">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D65">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>58</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3878,25 +3887,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2125984251968504</v>
+        <v>0.1947368421052632</v>
       </c>
       <c r="C66">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D66">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E66">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F66">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>100</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3904,25 +3913,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2052023121387283</v>
+        <v>0.1917293233082707</v>
       </c>
       <c r="C67">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D67">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E67">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F67">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>275</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3930,25 +3939,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2032967032967033</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C68">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E68">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>145</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3956,25 +3965,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1964679911699779</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="C69">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="D69">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="E69">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>364</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3982,25 +3991,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1910828025477707</v>
+        <v>0.1755102040816326</v>
       </c>
       <c r="C70">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D70">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>127</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4008,25 +4017,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1881188118811881</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C71">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E71">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F71">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4034,25 +4043,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1770833333333333</v>
+        <v>0.17</v>
       </c>
       <c r="C72">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>158</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4060,25 +4069,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1709401709401709</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C73">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4086,25 +4095,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1685082872928177</v>
+        <v>0.1518324607329843</v>
       </c>
       <c r="C74">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D74">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E74">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F74">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>301</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4112,25 +4121,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1616541353383459</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="C75">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D75">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E75">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>223</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4138,25 +4147,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1481481481481481</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="C76">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E76">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F76">
-        <v>0.9299999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>299</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4164,13 +4173,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1470588235294118</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C77">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4182,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4190,25 +4199,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.139344262295082</v>
+        <v>0.1464788732394366</v>
       </c>
       <c r="C78">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D78">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E78">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>210</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4216,25 +4225,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1337579617834395</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="C79">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E79">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="F79">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4242,25 +4251,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1304347826086956</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C80">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D80">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E80">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="F80">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>240</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4268,25 +4277,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1298701298701299</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D81">
         <v>20</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4294,25 +4303,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1292517006802721</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="C82">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E82">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4320,25 +4329,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1230769230769231</v>
+        <v>0.1371841155234657</v>
       </c>
       <c r="C83">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E83">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F83">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>171</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4346,13 +4355,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1223404255319149</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="C84">
+        <v>22</v>
+      </c>
+      <c r="D84">
         <v>23</v>
-      </c>
-      <c r="D84">
-        <v>24</v>
       </c>
       <c r="E84">
         <v>0.04</v>
@@ -4364,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4372,25 +4381,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1221374045801527</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="C85">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4398,25 +4407,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1196388261851016</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="C86">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D86">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E86">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F86">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>390</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4424,25 +4433,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1118530884808013</v>
+        <v>0.1164383561643836</v>
       </c>
       <c r="C87">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D87">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E87">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="F87">
-        <v>0.88</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>532</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4450,25 +4459,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1098265895953757</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="C88">
+        <v>16</v>
+      </c>
+      <c r="D88">
         <v>19</v>
       </c>
-      <c r="D88">
-        <v>21</v>
-      </c>
       <c r="E88">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="F88">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>154</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4476,13 +4485,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.106508875739645</v>
+        <v>0.1098169717138103</v>
       </c>
       <c r="C89">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="E89">
         <v>0.1</v>
@@ -4494,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>151</v>
+        <v>535</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4502,25 +4511,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1019108280254777</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="C90">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D90">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E90">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>282</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4528,25 +4537,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1012987012987013</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="C91">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="E91">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="F91">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>692</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4554,25 +4563,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.09004739336492891</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="C92">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D92">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E92">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="F92">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>384</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4580,25 +4589,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.07511737089201878</v>
+        <v>0.09196891191709844</v>
       </c>
       <c r="C93">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D93">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E93">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="F93">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>394</v>
+        <v>701</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4606,25 +4615,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.07465007776049767</v>
+        <v>0.0913312693498452</v>
       </c>
       <c r="C94">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D94">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E94">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="F94">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4632,25 +4641,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06876790830945559</v>
+        <v>0.08983451536643026</v>
       </c>
       <c r="C95">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D95">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E95">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="F95">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>325</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4658,25 +4667,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.06235565819861432</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C96">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E96">
-        <v>0.34</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F96">
-        <v>0.6599999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>406</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4684,25 +4693,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.05273833671399594</v>
+        <v>0.07819905213270142</v>
       </c>
       <c r="C97">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D97">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E97">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="F97">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>467</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4710,25 +4719,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.04366812227074236</v>
+        <v>0.07758620689655173</v>
       </c>
       <c r="C98">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D98">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E98">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="F98">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>438</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4736,25 +4745,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.04043126684636118</v>
+        <v>0.06682027649769585</v>
       </c>
       <c r="C99">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D99">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E99">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="F99">
-        <v>0.38</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4762,25 +4771,77 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.03555555555555556</v>
+        <v>0.06359649122807018</v>
       </c>
       <c r="C100">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D100">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E100">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="F100">
-        <v>0.5900000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>651</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.06237424547283702</v>
+      </c>
+      <c r="C101">
+        <v>31</v>
+      </c>
+      <c r="D101">
+        <v>38</v>
+      </c>
+      <c r="E101">
+        <v>0.18</v>
+      </c>
+      <c r="F101">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.0310192023633678</v>
+      </c>
+      <c r="C102">
+        <v>21</v>
+      </c>
+      <c r="D102">
+        <v>36</v>
+      </c>
+      <c r="E102">
+        <v>0.42</v>
+      </c>
+      <c r="F102">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
